--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dnajb11-Prtg.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.230948333333332</v>
+        <v>7.220785333333334</v>
       </c>
       <c r="H2">
-        <v>27.692845</v>
+        <v>21.662356</v>
       </c>
       <c r="I2">
-        <v>0.1305171068833537</v>
+        <v>0.1140291962005235</v>
       </c>
       <c r="J2">
-        <v>0.136333455114995</v>
+        <v>0.1193238000203875</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.2379583333333334</v>
+        <v>0.01675366666666667</v>
       </c>
       <c r="N2">
-        <v>0.713875</v>
+        <v>0.050261</v>
       </c>
       <c r="O2">
-        <v>0.1837051977730723</v>
+        <v>0.01455609640253496</v>
       </c>
       <c r="P2">
-        <v>0.2002374098318076</v>
+        <v>0.01645081268867244</v>
       </c>
       <c r="Q2">
-        <v>2.196581080486111</v>
+        <v>0.1209746305462222</v>
       </c>
       <c r="R2">
-        <v>19.769229724375</v>
+        <v>1.088771674916</v>
       </c>
       <c r="S2">
-        <v>0.0239766709327757</v>
+        <v>0.001659819972598393</v>
       </c>
       <c r="T2">
-        <v>0.02729905792564759</v>
+        <v>0.001962973483436003</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.230948333333332</v>
+        <v>7.220785333333334</v>
       </c>
       <c r="H3">
-        <v>27.692845</v>
+        <v>21.662356</v>
       </c>
       <c r="I3">
-        <v>0.1305171068833537</v>
+        <v>0.1140291962005235</v>
       </c>
       <c r="J3">
-        <v>0.136333455114995</v>
+        <v>0.1193238000203875</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.209591</v>
       </c>
       <c r="O3">
-        <v>0.5686056405569609</v>
+        <v>0.6399200096729796</v>
       </c>
       <c r="P3">
-        <v>0.6197762614290646</v>
+        <v>0.7232161648112139</v>
       </c>
       <c r="Q3">
-        <v>6.798873452932778</v>
+        <v>5.318327428488446</v>
       </c>
       <c r="R3">
-        <v>61.189861076395</v>
+        <v>47.86494685639601</v>
       </c>
       <c r="S3">
-        <v>0.07421276316305066</v>
+        <v>0.0729695643356411</v>
       </c>
       <c r="T3">
-        <v>0.08449623911887875</v>
+        <v>0.0862969010214449</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.230948333333332</v>
+        <v>7.220785333333334</v>
       </c>
       <c r="H4">
-        <v>27.692845</v>
+        <v>21.662356</v>
       </c>
       <c r="I4">
-        <v>0.1305171068833537</v>
+        <v>0.1140291962005235</v>
       </c>
       <c r="J4">
-        <v>0.136333455114995</v>
+        <v>0.1193238000203875</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.3208385</v>
+        <v>0.3976885</v>
       </c>
       <c r="N4">
-        <v>0.6416769999999999</v>
+        <v>0.795377</v>
       </c>
       <c r="O4">
-        <v>0.2476891616699667</v>
+        <v>0.3455238939244856</v>
       </c>
       <c r="P4">
-        <v>0.1799863287391277</v>
+        <v>0.2603330225001138</v>
       </c>
       <c r="Q4">
-        <v>2.961643616844166</v>
+        <v>2.871623288035334</v>
       </c>
       <c r="R4">
-        <v>17.769861701065</v>
+        <v>17.229739728212</v>
       </c>
       <c r="S4">
-        <v>0.03232767278752732</v>
+        <v>0.03939981189228405</v>
       </c>
       <c r="T4">
-        <v>0.02453815807046859</v>
+        <v>0.03106392551550662</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -732,40 +732,40 @@
         <v>42.806476</v>
       </c>
       <c r="I5">
-        <v>0.2017480473166161</v>
+        <v>0.2253304326850228</v>
       </c>
       <c r="J5">
-        <v>0.2107387223803517</v>
+        <v>0.2357929756948652</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2379583333333334</v>
+        <v>0.01675366666666667</v>
       </c>
       <c r="N5">
-        <v>0.713875</v>
+        <v>0.050261</v>
       </c>
       <c r="O5">
-        <v>0.1837051977730723</v>
+        <v>0.01455609640253496</v>
       </c>
       <c r="P5">
-        <v>0.2002374098318076</v>
+        <v>0.01645081268867244</v>
       </c>
       <c r="Q5">
-        <v>3.395385894944445</v>
+        <v>0.2390551433595556</v>
       </c>
       <c r="R5">
-        <v>30.55847305450001</v>
+        <v>2.151496290236</v>
       </c>
       <c r="S5">
-        <v>0.0370621649326301</v>
+        <v>0.003279931500588106</v>
       </c>
       <c r="T5">
-        <v>0.04219777592070599</v>
+        <v>0.00387898607646092</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>42.806476</v>
       </c>
       <c r="I6">
-        <v>0.2017480473166161</v>
+        <v>0.2253304326850228</v>
       </c>
       <c r="J6">
-        <v>0.2107387223803517</v>
+        <v>0.2357929756948652</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -812,10 +812,10 @@
         <v>2.209591</v>
       </c>
       <c r="O6">
-        <v>0.5686056405569609</v>
+        <v>0.6399200096729796</v>
       </c>
       <c r="P6">
-        <v>0.6197762614290646</v>
+        <v>0.7232161648112139</v>
       </c>
       <c r="Q6">
         <v>10.50942267903511</v>
@@ -824,10 +824,10 @@
         <v>94.58480411131602</v>
       </c>
       <c r="S6">
-        <v>0.1147150776755805</v>
+        <v>0.1441934526634165</v>
       </c>
       <c r="T6">
-        <v>0.1306108574952319</v>
+        <v>0.1705292915714642</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>42.806476</v>
       </c>
       <c r="I7">
-        <v>0.2017480473166161</v>
+        <v>0.2253304326850228</v>
       </c>
       <c r="J7">
-        <v>0.2107387223803517</v>
+        <v>0.2357929756948652</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3208385</v>
+        <v>0.3976885</v>
       </c>
       <c r="N7">
-        <v>0.6416769999999999</v>
+        <v>0.795377</v>
       </c>
       <c r="O7">
-        <v>0.2476891616699667</v>
+        <v>0.3455238939244856</v>
       </c>
       <c r="P7">
-        <v>0.1799863287391277</v>
+        <v>0.2603330225001138</v>
       </c>
       <c r="Q7">
-        <v>4.577988516708666</v>
+        <v>5.674547743575333</v>
       </c>
       <c r="R7">
-        <v>27.467931100252</v>
+        <v>34.047286461452</v>
       </c>
       <c r="S7">
-        <v>0.04997080470840542</v>
+        <v>0.07785704852101827</v>
       </c>
       <c r="T7">
-        <v>0.03793008896441374</v>
+        <v>0.06138469804694011</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,46 +912,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>15.39360966666667</v>
+        <v>18.28299766666667</v>
       </c>
       <c r="H8">
-        <v>46.180829</v>
+        <v>54.848993</v>
       </c>
       <c r="I8">
-        <v>0.2176514617604252</v>
+        <v>0.2887214384344039</v>
       </c>
       <c r="J8">
-        <v>0.2273508546212842</v>
+        <v>0.3021273527243128</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2379583333333334</v>
+        <v>0.01675366666666667</v>
       </c>
       <c r="N8">
-        <v>0.713875</v>
+        <v>0.050261</v>
       </c>
       <c r="O8">
-        <v>0.1837051977730723</v>
+        <v>0.01455609640253496</v>
       </c>
       <c r="P8">
-        <v>0.2002374098318076</v>
+        <v>0.01645081268867244</v>
       </c>
       <c r="Q8">
-        <v>3.66303770026389</v>
+        <v>0.3063072485747778</v>
       </c>
       <c r="R8">
-        <v>32.967339302375</v>
+        <v>2.756765237173</v>
       </c>
       <c r="S8">
-        <v>0.03998370482829718</v>
+        <v>0.004202657091329745</v>
       </c>
       <c r="T8">
-        <v>0.04552414625241379</v>
+        <v>0.004970240487792138</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>15.39360966666667</v>
+        <v>18.28299766666667</v>
       </c>
       <c r="H9">
-        <v>46.180829</v>
+        <v>54.848993</v>
       </c>
       <c r="I9">
-        <v>0.2176514617604252</v>
+        <v>0.2887214384344039</v>
       </c>
       <c r="J9">
-        <v>0.2273508546212842</v>
+        <v>0.3021273527243128</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -998,22 +998,22 @@
         <v>2.209591</v>
       </c>
       <c r="O9">
-        <v>0.5686056405569609</v>
+        <v>0.6399200096729796</v>
       </c>
       <c r="P9">
-        <v>0.6197762614290646</v>
+        <v>0.7232161648112139</v>
       </c>
       <c r="Q9">
-        <v>11.33786045899322</v>
+        <v>13.46598236576256</v>
       </c>
       <c r="R9">
-        <v>102.040744130939</v>
+        <v>121.193841291863</v>
       </c>
       <c r="S9">
-        <v>0.1237578488324454</v>
+        <v>0.1847586256757403</v>
       </c>
       <c r="T9">
-        <v>0.1409066627098823</v>
+        <v>0.2185033853218424</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>15.39360966666667</v>
+        <v>18.28299766666667</v>
       </c>
       <c r="H10">
-        <v>46.180829</v>
+        <v>54.848993</v>
       </c>
       <c r="I10">
-        <v>0.2176514617604252</v>
+        <v>0.2887214384344039</v>
       </c>
       <c r="J10">
-        <v>0.2273508546212842</v>
+        <v>0.3021273527243128</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.3208385</v>
+        <v>0.3976885</v>
       </c>
       <c r="N10">
-        <v>0.6416769999999999</v>
+        <v>0.795377</v>
       </c>
       <c r="O10">
-        <v>0.2476891616699667</v>
+        <v>0.3455238939244856</v>
       </c>
       <c r="P10">
-        <v>0.1799863287391277</v>
+        <v>0.2603330225001138</v>
       </c>
       <c r="Q10">
-        <v>4.938862635038833</v>
+        <v>7.270937917560166</v>
       </c>
       <c r="R10">
-        <v>29.633175810233</v>
+        <v>43.625627505361</v>
       </c>
       <c r="S10">
-        <v>0.05390990809968253</v>
+        <v>0.09976015566733389</v>
       </c>
       <c r="T10">
-        <v>0.04092004565898809</v>
+        <v>0.07865372691467833</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,46 +1098,46 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.052073999999999</v>
+        <v>8.429387500000001</v>
       </c>
       <c r="H11">
-        <v>18.104148</v>
+        <v>16.858775</v>
       </c>
       <c r="I11">
-        <v>0.1279879885696858</v>
+        <v>0.1331151996238646</v>
       </c>
       <c r="J11">
-        <v>0.0891277529901036</v>
+        <v>0.09286400319008276</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2379583333333334</v>
+        <v>0.01675366666666667</v>
       </c>
       <c r="N11">
-        <v>0.713875</v>
+        <v>0.050261</v>
       </c>
       <c r="O11">
-        <v>0.1837051977730723</v>
+        <v>0.01455609640253496</v>
       </c>
       <c r="P11">
-        <v>0.2002374098318076</v>
+        <v>0.01645081268867244</v>
       </c>
       <c r="Q11">
-        <v>2.15401644225</v>
+        <v>0.1412231483791667</v>
       </c>
       <c r="R11">
-        <v>12.9240986535</v>
+        <v>0.8473388902750001</v>
       </c>
       <c r="S11">
-        <v>0.02351205875277185</v>
+        <v>0.001937637678367658</v>
       </c>
       <c r="T11">
-        <v>0.01784671040286749</v>
+        <v>0.001527688322000331</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.052073999999999</v>
+        <v>8.429387500000001</v>
       </c>
       <c r="H12">
-        <v>18.104148</v>
+        <v>16.858775</v>
       </c>
       <c r="I12">
-        <v>0.1279879885696858</v>
+        <v>0.1331151996238646</v>
       </c>
       <c r="J12">
-        <v>0.0891277529901036</v>
+        <v>0.09286400319008276</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1184,22 +1184,22 @@
         <v>2.209591</v>
       </c>
       <c r="O12">
-        <v>0.5686056405569609</v>
+        <v>0.6399200096729796</v>
       </c>
       <c r="P12">
-        <v>0.6197762614290646</v>
+        <v>0.7232161648112139</v>
       </c>
       <c r="Q12">
-        <v>6.667127080578</v>
+        <v>6.208499585170834</v>
       </c>
       <c r="R12">
-        <v>40.002762483468</v>
+        <v>37.25099751102501</v>
       </c>
       <c r="S12">
-        <v>0.07277469222426321</v>
+        <v>0.08518307983092403</v>
       </c>
       <c r="T12">
-        <v>0.05523926553777955</v>
+        <v>0.06716074823614798</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.052073999999999</v>
+        <v>8.429387500000001</v>
       </c>
       <c r="H13">
-        <v>18.104148</v>
+        <v>16.858775</v>
       </c>
       <c r="I13">
-        <v>0.1279879885696858</v>
+        <v>0.1331151996238646</v>
       </c>
       <c r="J13">
-        <v>0.0891277529901036</v>
+        <v>0.09286400319008276</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3208385</v>
+        <v>0.3976885</v>
       </c>
       <c r="N13">
-        <v>0.6416769999999999</v>
+        <v>0.795377</v>
       </c>
       <c r="O13">
-        <v>0.2476891616699667</v>
+        <v>0.3455238939244856</v>
       </c>
       <c r="P13">
-        <v>0.1799863287391277</v>
+        <v>0.2603330225001138</v>
       </c>
       <c r="Q13">
-        <v>2.904253844048999</v>
+        <v>3.35227047079375</v>
       </c>
       <c r="R13">
-        <v>11.617015376196</v>
+        <v>13.409081883175</v>
       </c>
       <c r="S13">
-        <v>0.03170123759265077</v>
+        <v>0.04599448211457292</v>
       </c>
       <c r="T13">
-        <v>0.01604177704945656</v>
+        <v>0.02417556663193445</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>22.78050766666667</v>
+        <v>15.12200866666667</v>
       </c>
       <c r="H14">
-        <v>68.341523</v>
+        <v>45.36602600000001</v>
       </c>
       <c r="I14">
-        <v>0.3220953954699192</v>
+        <v>0.2388037330561851</v>
       </c>
       <c r="J14">
-        <v>0.3364492148932656</v>
+        <v>0.2498918683703518</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M14">
-        <v>0.2379583333333334</v>
+        <v>0.01675366666666667</v>
       </c>
       <c r="N14">
-        <v>0.713875</v>
+        <v>0.050261</v>
       </c>
       <c r="O14">
-        <v>0.1837051977730723</v>
+        <v>0.01455609640253496</v>
       </c>
       <c r="P14">
-        <v>0.2002374098318076</v>
+        <v>0.01645081268867244</v>
       </c>
       <c r="Q14">
-        <v>5.420811636847223</v>
+        <v>0.2533490925317778</v>
       </c>
       <c r="R14">
-        <v>48.787304731625</v>
+        <v>2.280141832786</v>
       </c>
       <c r="S14">
-        <v>0.05917059832659743</v>
+        <v>0.003476050159651055</v>
       </c>
       <c r="T14">
-        <v>0.06736971933017272</v>
+        <v>0.004110924318983045</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>22.78050766666667</v>
+        <v>15.12200866666667</v>
       </c>
       <c r="H15">
-        <v>68.341523</v>
+        <v>45.36602600000001</v>
       </c>
       <c r="I15">
-        <v>0.3220953954699192</v>
+        <v>0.2388037330561851</v>
       </c>
       <c r="J15">
-        <v>0.3364492148932656</v>
+        <v>0.2498918683703518</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1370,22 +1370,22 @@
         <v>2.209591</v>
       </c>
       <c r="O15">
-        <v>0.5686056405569609</v>
+        <v>0.6399200096729796</v>
       </c>
       <c r="P15">
-        <v>0.6197762614290646</v>
+        <v>0.7232161648112139</v>
       </c>
       <c r="Q15">
-        <v>16.77853490523255</v>
+        <v>11.13781808392956</v>
       </c>
       <c r="R15">
-        <v>151.006814147093</v>
+        <v>100.240362755366</v>
       </c>
       <c r="S15">
-        <v>0.1831452586616211</v>
+        <v>0.1528152871672576</v>
       </c>
       <c r="T15">
-        <v>0.2085232365672921</v>
+        <v>0.1807258386603145</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>22.78050766666667</v>
+        <v>15.12200866666667</v>
       </c>
       <c r="H16">
-        <v>68.341523</v>
+        <v>45.36602600000001</v>
       </c>
       <c r="I16">
-        <v>0.3220953954699192</v>
+        <v>0.2388037330561851</v>
       </c>
       <c r="J16">
-        <v>0.3364492148932656</v>
+        <v>0.2498918683703518</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.3208385</v>
+        <v>0.3976885</v>
       </c>
       <c r="N16">
-        <v>0.6416769999999999</v>
+        <v>0.795377</v>
       </c>
       <c r="O16">
-        <v>0.2476891616699667</v>
+        <v>0.3455238939244856</v>
       </c>
       <c r="P16">
-        <v>0.1799863287391277</v>
+        <v>0.2603330225001138</v>
       </c>
       <c r="Q16">
-        <v>7.308863909011833</v>
+        <v>6.013848943633668</v>
       </c>
       <c r="R16">
-        <v>43.85318345407099</v>
+        <v>36.083093661802</v>
       </c>
       <c r="S16">
-        <v>0.07977953848170069</v>
+        <v>0.08251239572927649</v>
       </c>
       <c r="T16">
-        <v>0.06055625899580071</v>
+        <v>0.06505510539105425</v>
       </c>
     </row>
   </sheetData>
